--- a/data/output/attendance data.xlsx
+++ b/data/output/attendance data.xlsx
@@ -1544,22 +1544,22 @@
         <v>25366.941176470587</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="2">
-        <v>45262</v>
+        <v>45255</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1">
         <v>25513</v>
@@ -1568,19 +1568,19 @@
         <v>75</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s">
         <v>104</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>2023</v>
@@ -1598,7 +1598,7 @@
         <v>120</v>
       </c>
       <c r="U15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
         <v>125</v>
@@ -1621,22 +1621,22 @@
         <v>25366.941176470587</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="2">
-        <v>45255</v>
+        <v>45262</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1">
         <v>25513</v>
@@ -1645,19 +1645,19 @@
         <v>75</v>
       </c>
       <c r="K16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
         <v>104</v>
       </c>
       <c r="M16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P16" s="3">
         <v>2023</v>
@@ -1675,7 +1675,7 @@
         <v>120</v>
       </c>
       <c r="U16" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V16" t="s">
         <v>125</v>
